--- a/New Language/Syntacticcally replaceable.xlsx
+++ b/New Language/Syntacticcally replaceable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\omer\myGitHub\Front-End-Compiler-Project\New Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60201E3F-A471-4E6C-85F6-3DE91847C100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF2B9E4-72A5-4DAB-BB50-4040A9B5B0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="72">
   <si>
     <t>abstract</t>
   </si>
@@ -279,10 +279,28 @@
     <t>ENG</t>
   </si>
   <si>
-    <t>Urdu</t>
-  </si>
-  <si>
     <t>Three ps</t>
+  </si>
+  <si>
+    <t>While</t>
+  </si>
+  <si>
+    <t>Loop till</t>
+  </si>
+  <si>
+    <t>For</t>
+  </si>
+  <si>
+    <t>Loop thoru</t>
+  </si>
+  <si>
+    <t>loopTill</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Mio</t>
   </si>
 </sst>
 </file>
@@ -432,7 +450,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -472,6 +490,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -758,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,31 +804,31 @@
         <v>63</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>63</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>63</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>61</v>
@@ -915,7 +936,7 @@
         <v>17</v>
       </c>
       <c r="J5" s="11"/>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="21" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1129,7 +1150,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="15"/>
       <c r="J15" s="13"/>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="21" t="s">
         <v>59</v>
       </c>
       <c r="M15" s="3" t="s">
@@ -1173,7 +1194,21 @@
         <v>36</v>
       </c>
     </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" t="s">
+        <v>68</v>
+      </c>
       <c r="L20" s="6" t="s">
         <v>31</v>
       </c>
@@ -1187,6 +1222,9 @@
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>70</v>
+      </c>
       <c r="L21" s="3" t="s">
         <v>31</v>
       </c>
@@ -1197,9 +1235,17 @@
         <v>38</v>
       </c>
     </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" t="s">
+        <v>69</v>
+      </c>
+    </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L24" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M24" s="20" t="s">
         <v>35</v>
@@ -1208,7 +1254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L25" s="17" t="s">
         <v>21</v>
       </c>
@@ -1232,7 +1278,7 @@
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
     </row>
-    <row r="27" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>

--- a/New Language/Syntacticcally replaceable.xlsx
+++ b/New Language/Syntacticcally replaceable.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\omer\myGitHub\Front-End-Compiler-Project\New Language\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects_collab\Front-End-Compiler-Project\New Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF2B9E4-72A5-4DAB-BB50-4040A9B5B0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="91">
   <si>
     <t>abstract</t>
   </si>
@@ -276,38 +275,95 @@
     <t>String</t>
   </si>
   <si>
-    <t>ENG</t>
-  </si>
-  <si>
     <t>Three ps</t>
   </si>
   <si>
-    <t>While</t>
-  </si>
-  <si>
-    <t>Loop till</t>
-  </si>
-  <si>
-    <t>For</t>
-  </si>
-  <si>
-    <t>Loop thoru</t>
-  </si>
-  <si>
-    <t>loopTill</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Mio</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>Class name(inherited class){}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if </t>
+  </si>
+  <si>
+    <t xml:space="preserve">loop till </t>
+  </si>
+  <si>
+    <t xml:space="preserve">do till </t>
+  </si>
+  <si>
+    <t>loop thru</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>cont</t>
+  </si>
+  <si>
+    <t>ret</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>dynamic (int/float)</t>
+  </si>
+  <si>
+    <t>val</t>
+  </si>
+  <si>
+    <t>implicit</t>
+  </si>
+  <si>
+    <t>begin/end</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>Const</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>MiO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,8 +411,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,8 +443,18 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -384,73 +464,58 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -464,42 +529,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="4" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -776,20 +830,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E19" sqref="E17:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
@@ -800,255 +855,313 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="10" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="L2" s="3" t="s">
+      <c r="J2" s="8"/>
+      <c r="L2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="7" t="s">
         <v>58</v>
       </c>
+      <c r="N2" s="11" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="10" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="L3" s="3" t="s">
+      <c r="J3" s="8"/>
+      <c r="L3" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="10" t="s">
+      <c r="H4" s="8"/>
+      <c r="I4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="L4" s="3" t="s">
+      <c r="J4" s="8"/>
+      <c r="L4" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="16" t="s">
+      <c r="H5" s="8"/>
+      <c r="I5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="L5" s="21" t="s">
+      <c r="J5" s="8"/>
+      <c r="L5" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="16" t="s">
+      <c r="H6" s="8"/>
+      <c r="I6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="L6" s="3" t="s">
+      <c r="J6" s="8"/>
+      <c r="L6" s="7" t="s">
         <v>41</v>
       </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10" t="s">
+      <c r="D7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="11"/>
-      <c r="L7" s="3" t="s">
+      <c r="F7" s="13"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="L7" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="11"/>
+      <c r="F8" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="11"/>
+      <c r="F9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="11"/>
+      <c r="B10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="11"/>
+      <c r="B11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
       <c r="L11" s="6" t="s">
         <v>10</v>
       </c>
@@ -1066,61 +1179,72 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="11"/>
-      <c r="L12" s="3" t="s">
+      <c r="B12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="L12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="O12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="P12" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="11"/>
+      <c r="B13" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="11"/>
+      <c r="B14" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
       <c r="L14" s="6" t="s">
         <v>59</v>
       </c>
@@ -1138,35 +1262,47 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="13"/>
-      <c r="L15" s="21" t="s">
+      <c r="B15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="L15" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="O15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="P15" s="7" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+    </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E17" s="12" t="s">
+        <v>90</v>
+      </c>
       <c r="L17" s="6" t="s">
         <v>13</v>
       </c>
@@ -1179,36 +1315,37 @@
       <c r="O17" s="6" t="s">
         <v>36</v>
       </c>
+      <c r="P17" s="8"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L18" s="3" t="s">
+      <c r="E18" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="N18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="O18" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="P18" s="8"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" t="s">
-        <v>66</v>
-      </c>
+      <c r="E19" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" t="s">
-        <v>68</v>
-      </c>
       <c r="L20" s="6" t="s">
         <v>31</v>
       </c>
@@ -1218,52 +1355,71 @@
       <c r="N20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
-        <v>70</v>
-      </c>
-      <c r="L21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="M21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="N21" s="7" t="s">
         <v>38</v>
       </c>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L24" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O24" s="10" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L24" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="M24" s="20" t="s">
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N24" s="20" t="s">
+      <c r="N25" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L25" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="N25" s="17" t="s">
-        <v>0</v>
-      </c>
+      <c r="O25" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="P25" s="8"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -1272,11 +1428,13 @@
       <c r="B26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L26" s="17" t="s">
+      <c r="L26" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -1285,11 +1443,13 @@
       <c r="B27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L27" s="17" t="s">
+      <c r="L27" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">

--- a/New Language/Syntacticcally replaceable.xlsx
+++ b/New Language/Syntacticcally replaceable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="113">
   <si>
     <t>abstract</t>
   </si>
@@ -358,12 +358,78 @@
   <si>
     <t>MiO</t>
   </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>$$</t>
+  </si>
+  <si>
+    <t>Relation Operator</t>
+  </si>
+  <si>
+    <t>&lt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>!=</t>
+  </si>
+  <si>
+    <t>==</t>
+  </si>
+  <si>
+    <t>++</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>inc-dec</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>mdm</t>
+  </si>
+  <si>
+    <t>pm</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,8 +491,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,8 +526,13 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -507,15 +585,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -547,8 +635,26 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="Bad" xfId="5" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
@@ -831,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E19" sqref="E17:E19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,11 +956,11 @@
     <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" customWidth="1"/>
     <col min="14" max="14" width="12.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>89</v>
       </c>
@@ -894,8 +1000,26 @@
       <c r="N1" s="10" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P1" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="T1" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="U1" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -914,10 +1038,12 @@
       <c r="F2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="18" t="s">
+        <v>84</v>
+      </c>
       <c r="I2" s="7" t="s">
         <v>31</v>
       </c>
@@ -931,8 +1057,26 @@
       <c r="N2" s="11" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
@@ -945,14 +1089,16 @@
       <c r="D3" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="I3" s="7" t="s">
         <v>27</v>
       </c>
@@ -962,8 +1108,20 @@
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="S3" t="s">
+        <v>106</v>
+      </c>
+      <c r="T3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>44</v>
       </c>
@@ -979,11 +1137,15 @@
       <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>0</v>
+      </c>
       <c r="G4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="I4" s="7" t="s">
         <v>38</v>
       </c>
@@ -993,28 +1155,36 @@
       </c>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>97</v>
+      </c>
+      <c r="T4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="8"/>
+      <c r="G5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="I5" s="9" t="s">
         <v>17</v>
       </c>
@@ -1024,27 +1194,28 @@
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="9" t="s">
         <v>22</v>
@@ -1055,22 +1226,25 @@
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="P6" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1081,7 +1255,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1105,17 +1279,17 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="7" t="s">
         <v>43</v>
       </c>
@@ -1127,7 +1301,7 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
@@ -1140,14 +1314,16 @@
       <c r="D10" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
@@ -1178,7 +1354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
@@ -1209,7 +1385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
@@ -1230,11 +1406,11 @@
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="8"/>
@@ -1261,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>60</v>
       </c>
@@ -1292,7 +1468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
@@ -1318,6 +1494,12 @@
       <c r="P17" s="8"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="E18" s="14" t="s">
         <v>89</v>
       </c>
@@ -1336,6 +1518,12 @@
       <c r="P18" s="8"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
       <c r="E19" s="10" t="s">
         <v>68</v>
       </c>

--- a/New Language/Syntacticcally replaceable.xlsx
+++ b/New Language/Syntacticcally replaceable.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects_collab\Front-End-Compiler-Project\New Language\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGit\Front-End-Compiler-Project\New Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="353"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -401,20 +401,20 @@
     <t>or</t>
   </si>
   <si>
-    <t>@comment/@@multi-line comment@@</t>
-  </si>
-  <si>
     <t>line terminator</t>
   </si>
   <si>
     <t>;</t>
+  </si>
+  <si>
+    <t>@comment/@#multi-line comment#@</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -887,11 +887,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V34" sqref="V34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
@@ -910,22 +910,22 @@
     <col min="23" max="23" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="A2" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
         <v>83</v>
       </c>
@@ -993,7 +993,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1115,7 +1115,7 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="A8" s="3" t="s">
         <v>44</v>
       </c>
@@ -1167,7 +1167,7 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -1213,7 +1213,7 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1253,7 +1253,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="A11" s="11" t="s">
         <v>54</v>
       </c>
@@ -1287,7 +1287,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1311,7 +1311,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -1333,7 +1333,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1357,7 +1357,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>64</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1392,7 +1392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -1400,10 +1400,10 @@
         <v>72</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1427,7 +1427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
@@ -1448,7 +1448,7 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="14" t="s">
         <v>36</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="3" t="s">
         <v>55</v>
       </c>
@@ -1510,14 +1510,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="M21" s="2" t="s">
         <v>13</v>
       </c>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="Q21" s="4"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" s="10" t="s">
         <v>83</v>
       </c>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="Q22" s="4"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23" s="4" t="s">
         <v>85</v>
       </c>
@@ -1566,7 +1566,7 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="M24" s="2" t="s">
         <v>31</v>
       </c>
@@ -1579,7 +1579,7 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="G25" t="s">
         <v>59</v>
       </c>
@@ -1595,7 +1595,7 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="E26" t="s">
         <v>59</v>
       </c>
@@ -1605,14 +1605,14 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="M28" s="6" t="s">
         <v>58</v>
       </c>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="Q28" s="4"/>
     </row>
-    <row r="29" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="27">
       <c r="M29" s="3" t="s">
         <v>21</v>
       </c>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="Q29" s="4"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="A30" s="17" t="s">
         <v>45</v>
       </c>
@@ -1657,7 +1657,7 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
     </row>
-    <row r="31" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="27">
       <c r="A31" s="17" t="s">
         <v>47</v>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="A32" s="17" t="s">
         <v>49</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="17" t="s">
         <v>51</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="18" t="s">
         <v>113</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="5" t="s">
         <v>115</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="5" t="s">
         <v>116</v>
       </c>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="5" t="s">
         <v>117</v>
       </c>

--- a/New Language/Syntacticcally replaceable.xlsx
+++ b/New Language/Syntacticcally replaceable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGit\Front-End-Compiler-Project\New Language\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\New Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054C98D8-AB40-442C-85F0-B84564A67ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="353"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="353" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="128">
   <si>
     <t>abstract</t>
   </si>
@@ -254,9 +255,6 @@
     <t>point</t>
   </si>
   <si>
-    <t>dynamic (int/float)</t>
-  </si>
-  <si>
     <t>val</t>
   </si>
   <si>
@@ -408,12 +406,15 @@
   </si>
   <si>
     <t>@comment/@#multi-line comment#@</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dynamic </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -884,11 +885,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -912,12 +913,12 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -927,31 +928,31 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>60</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>60</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>60</v>
@@ -963,34 +964,34 @@
         <v>57</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="R5" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="R5" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="S5" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V5" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="W5" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="W5" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="X5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y5" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="Y5" s="6" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1016,13 +1017,13 @@
         <v>21</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>31</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>29</v>
@@ -1031,34 +1032,34 @@
         <v>53</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T6" s="7" t="s">
         <v>45</v>
       </c>
       <c r="U6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="V6" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="V6" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="W6" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X6" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y6" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Y6" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1082,35 +1083,35 @@
         <v>11</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="N7" s="4"/>
       <c r="P7" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q7" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
@@ -1138,7 +1139,7 @@
         <v>16</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>38</v>
@@ -1151,18 +1152,18 @@
       </c>
       <c r="N8" s="4"/>
       <c r="P8" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
@@ -1188,18 +1189,20 @@
         <v>35</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="9"/>
+      <c r="J9" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="M9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="N9" s="4"/>
       <c r="P9" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -1208,7 +1211,7 @@
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
@@ -1228,20 +1231,22 @@
         <v>33</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="M10" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N10" s="4"/>
       <c r="P10" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -1304,7 +1309,7 @@
         <v>12</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1326,7 +1331,7 @@
         <v>43</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -1341,10 +1346,10 @@
         <v>5</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -1368,7 +1373,7 @@
         <v>64</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1400,10 +1405,10 @@
         <v>72</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1453,7 +1458,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1484,7 +1489,7 @@
         <v>55</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1534,7 +1539,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>60</v>
@@ -1555,10 +1560,10 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -1690,7 +1695,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>20</v>
@@ -1699,12 +1704,12 @@
         <v>30</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>24</v>
@@ -1718,7 +1723,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>6</v>
@@ -1730,7 +1735,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>42</v>

--- a/New Language/Syntacticcally replaceable.xlsx
+++ b/New Language/Syntacticcally replaceable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\New Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054C98D8-AB40-442C-85F0-B84564A67ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F8F000-DEE4-4898-B4C3-E169B2A6CA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="353" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -889,7 +889,7 @@
   <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/New Language/Syntacticcally replaceable.xlsx
+++ b/New Language/Syntacticcally replaceable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\New Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F8F000-DEE4-4898-B4C3-E169B2A6CA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2527AF19-F60A-4A76-8C90-3A05C6277D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="353" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="129">
   <si>
     <t>abstract</t>
   </si>
@@ -408,7 +408,10 @@
     <t>@comment/@#multi-line comment#@</t>
   </si>
   <si>
-    <t xml:space="preserve">dynamic </t>
+    <t>dynamic /var</t>
+  </si>
+  <si>
+    <t>Java/C#</t>
   </si>
 </sst>
 </file>
@@ -888,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -934,7 +937,7 @@
         <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>60</v>

--- a/New Language/Syntacticcally replaceable.xlsx
+++ b/New Language/Syntacticcally replaceable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\New Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2527AF19-F60A-4A76-8C90-3A05C6277D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CAD96B-1071-4221-B27A-AF91506644C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="353" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="130">
   <si>
     <t>abstract</t>
   </si>
@@ -412,6 +412,9 @@
   </si>
   <si>
     <t>Java/C#</t>
+  </si>
+  <si>
+    <t>in</t>
   </si>
 </sst>
 </file>
@@ -891,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1379,7 +1382,9 @@
         <v>126</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>

--- a/New Language/Syntacticcally replaceable.xlsx
+++ b/New Language/Syntacticcally replaceable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\New Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CAD96B-1071-4221-B27A-AF91506644C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86552BF8-1F80-4F4B-B552-36E532BBE4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="353" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="130">
   <si>
     <t>abstract</t>
   </si>
@@ -405,9 +405,6 @@
     <t>;</t>
   </si>
   <si>
-    <t>@comment/@#multi-line comment#@</t>
-  </si>
-  <si>
     <t>dynamic /var</t>
   </si>
   <si>
@@ -415,6 +412,9 @@
   </si>
   <si>
     <t>in</t>
+  </si>
+  <si>
+    <t>@comment/@@multi-line comment@@</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -557,6 +557,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -566,7 +577,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
@@ -605,6 +616,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -894,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -940,7 +957,7 @@
         <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>60</v>
@@ -1352,7 +1369,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>76</v>
@@ -1379,11 +1396,11 @@
         <v>64</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -1403,6 +1420,9 @@
       </c>
       <c r="Q15" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="R15" s="20" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1438,6 +1458,9 @@
       </c>
       <c r="Q16" s="3" t="s">
         <v>2</v>
+      </c>
+      <c r="R16" s="21" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:17">

--- a/New Language/Syntacticcally replaceable.xlsx
+++ b/New Language/Syntacticcally replaceable.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\New Language\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects_collab\Front-End-Compiler-Project\New Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86552BF8-1F80-4F4B-B552-36E532BBE4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="353" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="353"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="133">
   <si>
     <t>abstract</t>
   </si>
@@ -270,9 +269,6 @@
     <t>Self</t>
   </si>
   <si>
-    <t>Const</t>
-  </si>
-  <si>
     <t>Java</t>
   </si>
   <si>
@@ -415,13 +411,25 @@
   </si>
   <si>
     <t>@comment/@@multi-line comment@@</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>const</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raise </t>
+  </si>
+  <si>
+    <t>raises</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,8 +478,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -501,6 +516,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -569,15 +590,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
@@ -624,8 +646,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="6" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="6" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
+    <cellStyle name="60% - Accent5" xfId="6" builtinId="48"/>
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Input" xfId="3" builtinId="20"/>
@@ -908,14 +933,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
@@ -934,48 +959,48 @@
     <col min="23" max="23" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>60</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>60</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>60</v>
@@ -987,37 +1012,37 @@
         <v>57</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q5" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="R5" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="R5" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="S5" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V5" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="W5" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="W5" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="X5" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y5" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="Y5" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1046,7 +1071,7 @@
         <v>31</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>29</v>
@@ -1055,37 +1080,37 @@
         <v>53</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T6" s="7" t="s">
         <v>45</v>
       </c>
       <c r="U6" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="V6" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="V6" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="W6" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y6" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="Y6" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1106,40 +1131,40 @@
         <v>11</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="N7" s="4"/>
       <c r="P7" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q7" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>44</v>
       </c>
@@ -1156,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>38</v>
@@ -1175,23 +1200,23 @@
       </c>
       <c r="N8" s="4"/>
       <c r="P8" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -1205,7 +1230,7 @@
       <c r="E9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="23" t="s">
         <v>65</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -1218,14 +1243,14 @@
         <v>17</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="N9" s="4"/>
       <c r="P9" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -1234,12 +1259,12 @@
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1254,7 +1279,7 @@
         <v>33</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1262,14 +1287,14 @@
         <v>22</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N10" s="4"/>
       <c r="P10" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -1281,7 +1306,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>54</v>
       </c>
@@ -1315,7 +1340,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1339,7 +1364,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -1361,7 +1386,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1369,7 +1394,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>76</v>
@@ -1385,7 +1410,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
@@ -1395,12 +1420,12 @@
       <c r="C15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>129</v>
+      <c r="D15" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -1422,10 +1447,10 @@
         <v>2</v>
       </c>
       <c r="R15" s="20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -1433,10 +1458,10 @@
         <v>72</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="23" t="s">
         <v>124</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1460,10 +1485,10 @@
         <v>2</v>
       </c>
       <c r="R16" s="21" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
@@ -1484,7 +1509,7 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>36</v>
       </c>
@@ -1515,7 +1540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>55</v>
       </c>
@@ -1546,14 +1571,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M21" s="2" t="s">
         <v>13</v>
       </c>
@@ -1568,9 +1593,9 @@
       </c>
       <c r="Q21" s="4"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>60</v>
@@ -1589,12 +1614,12 @@
       </c>
       <c r="Q22" s="4"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -1602,7 +1627,7 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M24" s="2" t="s">
         <v>31</v>
       </c>
@@ -1615,7 +1640,7 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
         <v>59</v>
       </c>
@@ -1631,7 +1656,7 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>59</v>
       </c>
@@ -1641,14 +1666,14 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M28" s="6" t="s">
         <v>58</v>
       </c>
@@ -1663,7 +1688,7 @@
       </c>
       <c r="Q28" s="4"/>
     </row>
-    <row r="29" spans="1:17" ht="27">
+    <row r="29" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
       <c r="M29" s="3" t="s">
         <v>21</v>
       </c>
@@ -1678,7 +1703,7 @@
       </c>
       <c r="Q29" s="4"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>45</v>
       </c>
@@ -1693,7 +1718,7 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
     </row>
-    <row r="31" spans="1:17" ht="27">
+    <row r="31" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>47</v>
       </c>
@@ -1708,7 +1733,7 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>49</v>
       </c>
@@ -1716,7 +1741,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>51</v>
       </c>
@@ -1724,9 +1749,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>20</v>
@@ -1735,12 +1760,12 @@
         <v>30</v>
       </c>
       <c r="D36" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>24</v>
@@ -1752,9 +1777,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>6</v>
@@ -1764,9 +1789,9 @@
       </c>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>42</v>

--- a/New Language/Syntacticcally replaceable.xlsx
+++ b/New Language/Syntacticcally replaceable.xlsx
@@ -937,7 +937,7 @@
   <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,6 +955,8 @@
     <col min="14" max="14" width="12.140625" customWidth="1"/>
     <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.85546875" customWidth="1"/>
+    <col min="20" max="20" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>

--- a/New Language/Syntacticcally replaceable.xlsx
+++ b/New Language/Syntacticcally replaceable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects_collab\Front-End-Compiler-Project\New Language\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\New Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A3C123-BA28-4054-A066-01665266F779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="353"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="353" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="138">
   <si>
     <t>abstract</t>
   </si>
@@ -221,9 +222,6 @@
     <t>comment</t>
   </si>
   <si>
-    <t>Class name(inherited class){}</t>
-  </si>
-  <si>
     <t xml:space="preserve">if </t>
   </si>
   <si>
@@ -410,9 +408,6 @@
     <t>in</t>
   </si>
   <si>
-    <t>@comment/@@multi-line comment@@</t>
-  </si>
-  <si>
     <t>Abstract</t>
   </si>
   <si>
@@ -423,13 +418,34 @@
   </si>
   <si>
     <t>raises</t>
+  </si>
+  <si>
+    <t>@comment</t>
+  </si>
+  <si>
+    <t>@@multi-line comment@@</t>
+  </si>
+  <si>
+    <t>Class name(inherited class)</t>
+  </si>
+  <si>
+    <t>no interface</t>
+  </si>
+  <si>
+    <t>no long</t>
+  </si>
+  <si>
+    <t>only double</t>
+  </si>
+  <si>
+    <t>no byte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,7 +615,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
@@ -648,6 +664,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="6" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="6"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="60% - Accent5" xfId="6" builtinId="48"/>
@@ -933,19 +950,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5703125" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -961,48 +978,48 @@
     <col min="23" max="23" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>60</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>60</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>60</v>
@@ -1014,42 +1031,42 @@
         <v>57</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q5" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="R5" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="R5" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="S5" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="V5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="W5" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="W5" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="X5" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y5" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="Y5" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>29</v>
@@ -1067,13 +1084,13 @@
         <v>21</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>31</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>29</v>
@@ -1082,37 +1099,37 @@
         <v>53</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T6" s="7" t="s">
         <v>45</v>
       </c>
       <c r="U6" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="V6" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="V6" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="W6" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y6" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="Y6" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1123,7 +1140,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>34</v>
@@ -1133,45 +1150,45 @@
         <v>11</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="N7" s="4"/>
       <c r="P7" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q7" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="A8" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>32</v>
@@ -1183,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>38</v>
@@ -1202,57 +1219,59 @@
       </c>
       <c r="N8" s="4"/>
       <c r="P8" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="12" t="s">
+        <v>137</v>
+      </c>
       <c r="E9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>35</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>17</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="N9" s="4"/>
       <c r="P9" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -1261,27 +1280,29 @@
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="12" t="s">
+        <v>136</v>
+      </c>
       <c r="E10" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1289,14 +1310,14 @@
         <v>22</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N10" s="4"/>
       <c r="P10" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -1308,7 +1329,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="A11" s="11" t="s">
         <v>54</v>
       </c>
@@ -1322,7 +1343,9 @@
       <c r="E11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="12" t="s">
+        <v>134</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1342,12 +1365,12 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
@@ -1359,36 +1382,38 @@
         <v>12</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="12" t="s">
+        <v>135</v>
+      </c>
       <c r="E13" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1396,10 +1421,10 @@
         <v>5</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -1412,22 +1437,22 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -1449,21 +1474,21 @@
         <v>2</v>
       </c>
       <c r="R15" s="20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>124</v>
+        <v>64</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>132</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1487,18 +1512,22 @@
         <v>2</v>
       </c>
       <c r="R16" s="21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>123</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1511,12 +1540,12 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1542,12 +1571,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1573,14 +1602,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="M21" s="2" t="s">
         <v>13</v>
       </c>
@@ -1595,9 +1624,9 @@
       </c>
       <c r="Q21" s="4"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>60</v>
@@ -1616,12 +1645,12 @@
       </c>
       <c r="Q22" s="4"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -1629,7 +1658,7 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="M24" s="2" t="s">
         <v>31</v>
       </c>
@@ -1642,7 +1671,7 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="G25" t="s">
         <v>59</v>
       </c>
@@ -1658,7 +1687,7 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="E26" t="s">
         <v>59</v>
       </c>
@@ -1668,14 +1697,14 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="M28" s="6" t="s">
         <v>58</v>
       </c>
@@ -1690,7 +1719,7 @@
       </c>
       <c r="Q28" s="4"/>
     </row>
-    <row r="29" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="27">
       <c r="M29" s="3" t="s">
         <v>21</v>
       </c>
@@ -1705,7 +1734,7 @@
       </c>
       <c r="Q29" s="4"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="A30" s="17" t="s">
         <v>45</v>
       </c>
@@ -1720,7 +1749,7 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
     </row>
-    <row r="31" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="27">
       <c r="A31" s="17" t="s">
         <v>47</v>
       </c>
@@ -1735,7 +1764,7 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="A32" s="17" t="s">
         <v>49</v>
       </c>
@@ -1743,7 +1772,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="17" t="s">
         <v>51</v>
       </c>
@@ -1751,9 +1780,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>20</v>
@@ -1762,12 +1791,12 @@
         <v>30</v>
       </c>
       <c r="D36" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="5" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>24</v>
@@ -1779,9 +1808,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>6</v>
@@ -1791,9 +1820,9 @@
       </c>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>42</v>

--- a/New Language/Syntacticcally replaceable.xlsx
+++ b/New Language/Syntacticcally replaceable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\New Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A3C123-BA28-4054-A066-01665266F779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E627355-74E8-4EAF-9D6D-304E84E0007E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="353" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -954,7 +954,7 @@
   <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1080,12 +1080,6 @@
       <c r="F6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>76</v>
-      </c>
       <c r="I6" s="3" t="s">
         <v>31</v>
       </c>
@@ -1146,12 +1140,6 @@
         <v>34</v>
       </c>
       <c r="F7" s="12"/>
-      <c r="G7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="I7" s="3" t="s">
         <v>27</v>
       </c>
@@ -1201,12 +1189,6 @@
       </c>
       <c r="F8" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>38</v>
@@ -1253,12 +1235,6 @@
       </c>
       <c r="F9" s="23" t="s">
         <v>133</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>17</v>
@@ -1349,7 +1325,9 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="M11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1387,7 +1365,6 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="3" t="s">
@@ -1426,11 +1403,11 @@
       <c r="D14" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>3</v>
+      <c r="E14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1450,9 +1427,11 @@
       <c r="D15" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F15" s="4" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -1490,8 +1469,12 @@
       <c r="D16" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="E16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -1528,8 +1511,12 @@
       <c r="D17" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="E17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -1549,8 +1536,12 @@
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>

--- a/New Language/Syntacticcally replaceable.xlsx
+++ b/New Language/Syntacticcally replaceable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\New Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E627355-74E8-4EAF-9D6D-304E84E0007E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678519B1-70C3-4196-826D-372DD77749E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="353" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="139">
   <si>
     <t>abstract</t>
   </si>
@@ -285,9 +285,6 @@
     <t>Relation Operator</t>
   </si>
   <si>
-    <t>&lt;&gt;</t>
-  </si>
-  <si>
     <t>&lt;=</t>
   </si>
   <si>
@@ -439,6 +436,12 @@
   </si>
   <si>
     <t>no byte</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>&gt;</t>
   </si>
 </sst>
 </file>
@@ -953,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -970,6 +973,7 @@
     <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" customWidth="1"/>
     <col min="14" max="14" width="12.140625" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" customWidth="1"/>
     <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.85546875" customWidth="1"/>
     <col min="20" max="20" width="5.7109375" bestFit="1" customWidth="1"/>
@@ -1001,7 +1005,7 @@
         <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>60</v>
@@ -1034,31 +1038,31 @@
         <v>85</v>
       </c>
       <c r="Q5" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="R5" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="R5" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="S5" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V5" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="W5" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="W5" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="X5" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y5" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="Y5" s="6" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1084,43 +1088,43 @@
         <v>31</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>53</v>
+      <c r="N6" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T6" s="7" t="s">
         <v>45</v>
       </c>
       <c r="U6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="V6" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="V6" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="W6" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X6" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y6" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Y6" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1144,29 +1148,29 @@
         <v>27</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>14</v>
+        <v>115</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="N7" s="4"/>
       <c r="P7" s="4" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="Q7" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
@@ -1188,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>38</v>
@@ -1201,18 +1205,18 @@
       </c>
       <c r="N8" s="4"/>
       <c r="P8" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
@@ -1228,26 +1232,26 @@
         <v>18</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>17</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>18</v>
+        <v>128</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="N9" s="4"/>
       <c r="P9" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -1256,7 +1260,7 @@
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
@@ -1272,13 +1276,13 @@
         <v>41</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1286,14 +1290,14 @@
         <v>22</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>41</v>
+        <v>129</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="N10" s="4"/>
-      <c r="P10" s="16" t="s">
-        <v>90</v>
+      <c r="P10" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -1320,19 +1324,19 @@
         <v>15</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="M11" s="3"/>
       <c r="N11" s="4"/>
-      <c r="P11" s="4"/>
+      <c r="P11" s="16" t="s">
+        <v>89</v>
+      </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
@@ -1377,7 +1381,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>43</v>
@@ -1398,7 +1402,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>75</v>
@@ -1425,7 +1429,7 @@
         <v>64</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>11</v>
@@ -1453,7 +1457,7 @@
         <v>2</v>
       </c>
       <c r="R15" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1467,7 +1471,7 @@
         <v>64</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>16</v>
@@ -1495,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="R16" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1506,10 +1510,10 @@
         <v>73</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>122</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>123</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>35</v>
@@ -1773,7 +1777,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>20</v>
@@ -1782,12 +1786,12 @@
         <v>30</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>24</v>
@@ -1801,7 +1805,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>6</v>
@@ -1813,7 +1817,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>42</v>

--- a/New Language/Syntacticcally replaceable.xlsx
+++ b/New Language/Syntacticcally replaceable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\New Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678519B1-70C3-4196-826D-372DD77749E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A2FB50-79D5-48F7-B44F-1C1C14A4E4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="353" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -956,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1519,7 +1519,7 @@
         <v>35</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>

--- a/New Language/Syntacticcally replaceable.xlsx
+++ b/New Language/Syntacticcally replaceable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\omer\myGitHub\Front-End-Compiler-Project\New Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A2FB50-79D5-48F7-B44F-1C1C14A4E4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72FD599-9834-4667-B10E-E877A036F41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="353" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="143">
   <si>
     <t>abstract</t>
   </si>
@@ -258,9 +258,6 @@
     <t>implicit</t>
   </si>
   <si>
-    <t>begin/end</t>
-  </si>
-  <si>
     <t>Parent</t>
   </si>
   <si>
@@ -442,6 +439,21 @@
   </si>
   <si>
     <t>&gt;</t>
+  </si>
+  <si>
+    <t>loop</t>
+  </si>
+  <si>
+    <t>thru</t>
+  </si>
+  <si>
+    <t>till</t>
+  </si>
+  <si>
+    <t>begin</t>
+  </si>
+  <si>
+    <t>var</t>
   </si>
 </sst>
 </file>
@@ -954,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y39"/>
+  <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="F13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -972,58 +984,58 @@
     <col min="8" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
     <col min="14" max="14" width="12.140625" customWidth="1"/>
     <col min="15" max="15" width="10.5703125" customWidth="1"/>
-    <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" customWidth="1"/>
+    <col min="16" max="17" width="17" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:26">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>60</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>60</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>60</v>
@@ -1034,38 +1046,41 @@
       <c r="N5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P5" s="6" t="s">
-        <v>85</v>
+      <c r="O5" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="Q5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="S5" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="T5" s="6" t="s">
         <v>97</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="V5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="X5" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="W5" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="X5" s="6" t="s">
+      <c r="Y5" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z5" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="Y5" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1088,7 +1103,7 @@
         <v>31</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>29</v>
@@ -1096,38 +1111,41 @@
       <c r="N6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q6" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>92</v>
+      <c r="O6" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T6" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="U6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="U6" s="7" t="s">
+      <c r="V6" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="W6" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="V6" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="W6" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="X6" s="7" t="s">
+      <c r="X6" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z6" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="Y6" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1148,34 +1166,34 @@
         <v>27</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>74</v>
       </c>
       <c r="N7" s="4"/>
-      <c r="P7" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q7" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4" t="s">
-        <v>96</v>
-      </c>
+      <c r="Q7" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="R7" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="S7" s="4"/>
       <c r="T7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="U7" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="V7" s="4"/>
-      <c r="W7" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="X7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="16" t="s">
+        <v>105</v>
+      </c>
       <c r="Y7" s="4"/>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7" s="4"/>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" s="3" t="s">
         <v>44</v>
       </c>
@@ -1192,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>38</v>
@@ -1204,24 +1222,24 @@
         <v>32</v>
       </c>
       <c r="N8" s="4"/>
-      <c r="P8" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q8" s="4"/>
+      <c r="Q8" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="U8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="V8" s="4"/>
-      <c r="W8" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="X8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="Y8" s="4"/>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8" s="4"/>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -1232,40 +1250,40 @@
         <v>18</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>17</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>75</v>
       </c>
       <c r="N9" s="4"/>
-      <c r="P9" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q9" s="4"/>
+      <c r="Q9" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
-      <c r="W9" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="X9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="16" t="s">
+        <v>107</v>
+      </c>
       <c r="Y9" s="4"/>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9" s="4"/>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1276,13 +1294,13 @@
         <v>41</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1290,16 +1308,15 @@
         <v>22</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>62</v>
       </c>
       <c r="N10" s="4"/>
-      <c r="P10" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q10" s="4"/>
+      <c r="Q10" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
@@ -1308,8 +1325,9 @@
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10" s="4"/>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" s="11" t="s">
         <v>54</v>
       </c>
@@ -1324,20 +1342,18 @@
         <v>15</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="M11" s="3"/>
+        <v>124</v>
+      </c>
       <c r="N11" s="4"/>
-      <c r="P11" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q11" s="4"/>
+      <c r="Q11" s="16" t="s">
+        <v>88</v>
+      </c>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -1346,8 +1362,9 @@
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11" s="4"/>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1364,13 +1381,13 @@
         <v>12</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:26">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -1381,20 +1398,20 @@
         <v>39</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:26">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1402,7 +1419,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>75</v>
@@ -1418,7 +1435,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:26">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
@@ -1429,13 +1446,13 @@
         <v>64</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -1448,19 +1465,16 @@
         <v>19</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>9</v>
+        <v>138</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R15" s="20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -1471,13 +1485,13 @@
         <v>64</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1490,19 +1504,16 @@
         <v>19</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>9</v>
+        <v>138</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R16" s="21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
@@ -1510,10 +1521,10 @@
         <v>73</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>121</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>122</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>35</v>
@@ -1529,9 +1540,8 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-    </row>
-    <row r="18" spans="1:17">
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="14" t="s">
         <v>36</v>
       </c>
@@ -1551,7 +1561,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="M18" s="2" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>4</v>
@@ -1560,18 +1570,18 @@
         <v>23</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:19">
       <c r="A19" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1581,8 +1591,8 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="M19" s="4" t="s">
-        <v>54</v>
+      <c r="M19" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>4</v>
@@ -1590,62 +1600,66 @@
       <c r="O19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="P19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:19">
       <c r="M21" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q21" s="4"/>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="P21" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>25</v>
+      <c r="M22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q22" s="4"/>
-    </row>
-    <row r="23" spans="1:17">
+        <v>141</v>
+      </c>
+      <c r="P22" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -1653,7 +1667,7 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:19">
       <c r="M24" s="2" t="s">
         <v>31</v>
       </c>
@@ -1663,26 +1677,34 @@
       <c r="O24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="P24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="G25" t="s">
         <v>59</v>
       </c>
-      <c r="M25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O25" s="3" t="s">
+      <c r="M25" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="O25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="P25" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="E26" t="s">
         <v>59</v>
       </c>
@@ -1692,44 +1714,62 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
     </row>
-    <row r="27" spans="1:17">
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="M28" s="6" t="s">
+    <row r="27" spans="1:19">
+      <c r="M27" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="N28" s="2" t="s">
+      <c r="N27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="O27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="P28" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q28" s="4"/>
-    </row>
-    <row r="29" spans="1:17" ht="27">
+      <c r="P27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S27" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="M28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="R28" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="S28" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="M29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>64</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:19">
       <c r="A30" s="17" t="s">
         <v>45</v>
       </c>
@@ -1737,29 +1777,23 @@
         <v>46</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
     </row>
-    <row r="31" spans="1:17" ht="27">
+    <row r="31" spans="1:19">
       <c r="A31" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="M31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:19">
       <c r="A32" s="17" t="s">
         <v>49</v>
       </c>
@@ -1777,7 +1811,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>20</v>
@@ -1786,12 +1820,12 @@
         <v>30</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>24</v>
@@ -1805,7 +1839,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>6</v>
@@ -1817,7 +1851,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>42</v>
